--- a/data/income_statement/3digits/total/133_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/133_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>133-Finishing of textiles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>133-Finishing of textiles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>4851169.150309999</v>
@@ -959,34 +865,39 @@
         <v>7023910.75041</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7965710.812729999</v>
+        <v>7966605.04916</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>9185493.993069999</v>
+        <v>9351517.544500001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>11242436.8462</v>
+        <v>11248291.93112</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>12473586.24249</v>
+        <v>12748633.90652</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>13917278.50417</v>
+        <v>13922389.79257</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>17210170.82616</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>22900866.55740999</v>
+        <v>22921928.83019</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>26803175.01961</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27245277.87867</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>29576254.968</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3950259.60949</v>
@@ -998,55 +909,60 @@
         <v>5749052.09619</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6659026.7615</v>
+        <v>6659387.88217</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7624250.463950001</v>
+        <v>7788236.367099999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>9459740.709959999</v>
+        <v>9464188.346800001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>10334982.01535</v>
+        <v>10607362.6285</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>11751109.27082</v>
+        <v>11756192.80525</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>14258191.78285</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>18605630.86096</v>
+        <v>18626096.61778</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>22956761.78959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>23366029.76773</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>25236351.571</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>823059.61034</v>
+        <v>823059.6103399999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>938479.4185899999</v>
+        <v>938479.41859</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>1180290.05242</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1185053.33681</v>
+        <v>1185582.02757</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1441649.75114</v>
+        <v>1443460.01836</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1660396.45517</v>
+        <v>1661709.44425</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1985287.16739</v>
+        <v>1986505.16085</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1963364.70674</v>
@@ -1055,19 +971,24 @@
         <v>2699586.54767</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3965210.46474</v>
+        <v>3965228.48119</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3444033.84596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3469542.555090001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3826588.385</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>77849.93048000001</v>
+        <v>77849.93048</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>89533.91899999999</v>
@@ -1076,34 +997,39 @@
         <v>94568.6018</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>121630.71442</v>
+        <v>121635.13942</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>119593.77798</v>
+        <v>119821.15904</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>122299.68107</v>
+        <v>122394.14007</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>153317.05975</v>
+        <v>154766.11717</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>202804.52661</v>
+        <v>202832.28058</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>252392.49564</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>330025.23171</v>
+        <v>330603.73122</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>402379.3840600001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>409705.5558499999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>513315.012</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>122605.23147</v>
@@ -1121,34 +1047,39 @@
         <v>185363.95959</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>229857.29901</v>
+        <v>229930.6919</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>266675.99067</v>
+        <v>271796.8954</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>303034.07121</v>
+        <v>303039.77395</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>383560.49516</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>546326.67751</v>
+        <v>546701.69281</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>648662.2664099999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>657717.6576800001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>720498.249</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>80690.48104</v>
+        <v>80690.48104000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>82697.47127000001</v>
+        <v>82697.47126999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>107727.31617</v>
@@ -1160,10 +1091,10 @@
         <v>133409.46251</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>158650.92587</v>
+        <v>158724.02777</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>184443.95398</v>
+        <v>187259.41086</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>214018.54722</v>
@@ -1172,16 +1103,21 @@
         <v>269065.96131</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>353255.03267</v>
+        <v>353449.7282899999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>456263.90237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>463305.9367</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>514042.152</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>19017.67797</v>
@@ -1199,10 +1135,10 @@
         <v>20337.30695</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>23229.68038</v>
+        <v>23229.97137</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>24525.9734</v>
+        <v>25594.70246</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>29148.06383</v>
@@ -1211,16 +1147,21 @@
         <v>36673.56001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>53540.87242</v>
+        <v>53553.53192</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>66505.87490000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>66542.81061</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>65569.129</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>22897.07246</v>
@@ -1238,67 +1179,77 @@
         <v>31617.19013</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>47976.69276</v>
+        <v>47976.69276000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>57706.06329000001</v>
+        <v>58942.78208</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>59867.46016</v>
+        <v>59873.1629</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>77820.97384000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>139530.77242</v>
+        <v>139698.4326</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>125892.48914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>127868.91037</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>140886.968</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>4728563.91884</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5590835.0786</v>
+        <v>5590835.078600001</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>6871959.87969</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7789050.60483</v>
+        <v>7789944.841259998</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>9000130.03348</v>
+        <v>9166153.58491</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>11012579.54719</v>
+        <v>11018361.23922</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>12206910.25182</v>
+        <v>12476837.01112</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>13614244.43296</v>
+        <v>13619350.01862</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>16826610.331</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>22354539.8799</v>
+        <v>22375227.13738</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>26154512.7532</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>26587560.22099</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>28855756.719</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>4135958.15764</v>
@@ -1310,34 +1261,39 @@
         <v>6010552.93925</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6959842.94671</v>
+        <v>6960682.743389999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7873154.32175</v>
+        <v>8004082.21381</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>9687315.665810002</v>
+        <v>9691681.349849999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>10679701.99695</v>
+        <v>10910737.59764</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>11914762.2403</v>
+        <v>11919530.13664</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>14530454.92025</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>18848898.07605</v>
+        <v>18868540.24158</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>22806417.64181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23192442.88144</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>24251865.899</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2599656.03502</v>
@@ -1355,28 +1311,33 @@
         <v>5204288.652840001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6478342.84252</v>
+        <v>6478342.842519999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>7165945.883390001</v>
+        <v>7284908.55323</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>8029978.802620001</v>
+        <v>8034045.136929999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>9512604.562379999</v>
+        <v>9512604.562380001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>12701974.52956</v>
+        <v>12703603.85777</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>15652034.6143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15886808.9861</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>16597217.349</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>394767.99526</v>
@@ -1388,34 +1349,39 @@
         <v>580752.66523</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>657851.14426</v>
+        <v>658690.94094</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>743523.2367799999</v>
+        <v>745512.08523</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>878305.9470699999</v>
+        <v>880059.33469</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1189720.23422</v>
+        <v>1192216.02427</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1275921.71921</v>
+        <v>1275922.86601</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1808846.00053</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2200157.19463</v>
+        <v>2201771.47648</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2282824.11679</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2364205.0258</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2490005.289</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1104754.6739</v>
@@ -1433,28 +1399,33 @@
         <v>1872789.13849</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2186313.2663</v>
+        <v>2188925.56272</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2185584.82792</v>
+        <v>2294097.09386</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2526617.54873</v>
+        <v>2527317.96396</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>3102268.75534</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3823039.99006</v>
+        <v>3839316.263059999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4715200.91418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4783885.446939999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4988342.607</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>36779.45346</v>
@@ -1463,40 +1434,45 @@
         <v>38054.21491</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>56950.11341</v>
+        <v>56950.11341000001</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>38637.39487</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>52553.29364</v>
+        <v>181492.33725</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>144353.60992</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>138451.05142</v>
+        <v>139515.92628</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>82244.16974000001</v>
+        <v>82244.16974</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>106735.602</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>123726.3618</v>
+        <v>123848.64427</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>156357.99654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>157543.4226</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>176300.654</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>592605.7612000001</v>
+        <v>592605.7611999999</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>632006.92376</v>
@@ -1505,34 +1481,39 @@
         <v>861406.94044</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>829207.6581199999</v>
+        <v>829262.0978700001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1126975.71173</v>
+        <v>1162071.3711</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1325263.88138</v>
+        <v>1326679.88937</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1527208.25487</v>
+        <v>1566099.41348</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1699482.19266</v>
+        <v>1699819.88198</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2296155.41075</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3505641.80385</v>
+        <v>3506686.8958</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3348095.11139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3395117.33955</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4603890.82</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>374119.71348</v>
@@ -1541,40 +1522,45 @@
         <v>404434.13425</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>475954.7931799999</v>
+        <v>475954.79318</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>554803.2085699999</v>
+        <v>554915.79256</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>629518.2143599999</v>
+        <v>647405.08695</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>776553.55852</v>
+        <v>777861.9751899999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>849078.0141899998</v>
+        <v>872417.65148</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1012848.38524</v>
+        <v>1013061.20921</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1163235.29899</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1483739.42798</v>
+        <v>1491472.76801</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1705443.17759</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1728753.57473</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1829936.781</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>940.48402</v>
+        <v>940.4840199999999</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>1152.53954</v>
@@ -1604,13 +1590,18 @@
         <v>13672.12743</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>33430.59119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>34043.58787</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>22706.265</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>108012.18294</v>
@@ -1622,34 +1613,39 @@
         <v>138116.44452</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>158647.88205</v>
+        <v>158667.35482</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>191761.07219</v>
+        <v>191973.9504</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>240892.47017</v>
+        <v>240968.14046</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>250666.37759</v>
+        <v>261078.29658</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>307183.0318300001</v>
+        <v>307192.33977</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>377775.54891</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>501829.6125</v>
+        <v>502942.33636</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>539081.14804</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>547229.6442100001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>548505.429</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>265167.04652</v>
@@ -1661,34 +1657,39 @@
         <v>335913.84329</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>393441.83474</v>
+        <v>393534.94596</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>434575.5382000001</v>
+        <v>452249.5325800001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>526912.53324</v>
+        <v>528145.27962</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>587410.3293700001</v>
+        <v>600338.04767</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>697009.20207</v>
+        <v>697212.7181000001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>777148.66452</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>968237.6880499999</v>
+        <v>974858.30422</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1132931.43836</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1147480.34265</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1258725.087</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>218486.04772</v>
@@ -1700,34 +1701,39 @@
         <v>385452.14726</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>274404.44955</v>
+        <v>274346.30531</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>497457.49737</v>
+        <v>514666.28415</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>548710.32286</v>
+        <v>548817.9141800001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>678130.24068</v>
+        <v>693681.762</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>686633.8074199999</v>
+        <v>686758.6727699999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1132920.11176</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2021902.37587</v>
+        <v>2015214.12779</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1642651.9338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1666363.76482</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2773954.039</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>166363.82611</v>
@@ -1739,34 +1745,39 @@
         <v>223229.10237</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>207868.86371</v>
+        <v>207965.44255</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>254861.23049</v>
+        <v>259308.57844</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>325220.97298</v>
+        <v>325462.32267</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>556706.8513</v>
+        <v>578256.9165000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>557793.56998</v>
+        <v>557824.93608</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>736124.8029199999</v>
+        <v>736124.80292</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2530753.69523</v>
+        <v>2539539.20901</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1378841.65665</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1384714.99713</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2350078.21</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1187.2967</v>
@@ -1790,7 +1801,7 @@
         <v>3061.10047</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4194.83245</v>
+        <v>4194.832449999999</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>3849.44632</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>59102.30051</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>4426.953</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>925.01058</v>
@@ -1823,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>8956.593700000001</v>
+        <v>8956.593699999999</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>1473.61193</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>3244.83197</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>9290.425999999999</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>9513.562800000002</v>
+        <v>9513.5628</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>12762.01692</v>
@@ -1859,13 +1880,13 @@
         <v>22126.85772</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>17719.85157</v>
+        <v>18482.60832</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>23816.77705</v>
+        <v>23967.97816</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>25553.17395</v>
+        <v>27511.58498</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>36697.26831</v>
@@ -1874,16 +1895,21 @@
         <v>44548.76403</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>77839.92295000001</v>
+        <v>78518.96971</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>64848.39124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>65122.82290000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>80199.632</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2883.08205</v>
@@ -1898,19 +1924,19 @@
         <v>605.6824399999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>350.01981</v>
+        <v>390.82602</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1345.71545</v>
+        <v>1395.41846</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1131.31601</v>
+        <v>1133.12573</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>135.94287</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>340.9346099999999</v>
+        <v>340.93461</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>4664.39692</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1188.49968</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1886.688</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1859.61843</v>
@@ -1937,13 +1968,13 @@
         <v>2595.15738</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>3701.12722</v>
+        <v>3702.54761</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>1219.14764</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1715.00059</v>
+        <v>1788.49809</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>3665.65107</v>
@@ -1957,32 +1988,37 @@
       <c r="M30" s="48" t="n">
         <v>10153.33378</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>8668.59</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>959.49603</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>353.5839300000001</v>
+        <v>353.58393</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>1138.45108</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1073.68747</v>
+        <v>1073.72983</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4576.31114</v>
+        <v>4576.38735</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>387.66293</v>
+        <v>387.70683</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2050.92093</v>
+        <v>2060.05885</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>22026.22163</v>
@@ -1991,16 +2027,21 @@
         <v>3074.41374</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>77402.21729</v>
+        <v>77961.66803</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>18298.51925</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>13939.406</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>112174.65356</v>
@@ -2012,34 +2053,39 @@
         <v>137626.39904</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>115841.62278</v>
+        <v>115846.11921</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>155175.83204</v>
+        <v>156627.20704</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>205896.12645</v>
+        <v>205908.21803</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>396997.57555</v>
+        <v>413300.48341</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>363759.2829699999</v>
+        <v>363767.84578</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>539816.72447</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2055469.25422</v>
+        <v>2056013.19873</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>970111.6619300001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>974057.0482300001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1927203.723</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>40.50709</v>
@@ -2060,10 +2106,10 @@
         <v>5499.26005</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>4786.8471</v>
+        <v>4790.20404</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>5900.966979999998</v>
+        <v>5900.96698</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>13546.47078</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>51745.26383</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>56528.5</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,50 +2164,60 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>36820.59887</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>42416.9764</v>
+        <v>42416.97640000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>58084.00322999999</v>
+        <v>58084.00323</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>55662.82825</v>
+        <v>55754.86829999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>64241.17092999999</v>
+        <v>66432.08431999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>77566.67025</v>
+        <v>77594.98034000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>117146.91019</v>
+        <v>120347.85442</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>120781.8532</v>
+        <v>120804.65649</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>124467.11632</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>247030.97079</v>
+        <v>254034.04256</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>200148.85446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>201802.37698</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>247934.292</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>156116.62047</v>
@@ -2168,52 +2229,57 @@
         <v>196260.95989</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>139479.06848</v>
+        <v>139480.47474</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>279573.52329</v>
+        <v>282526.7002200001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>271691.55963</v>
+        <v>271698.55071</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>567319.01298</v>
+        <v>593911.9647</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>578138.07316</v>
+        <v>577992.38638</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>734352.1878499999</v>
+        <v>734352.18785</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2387804.88415</v>
+        <v>2388460.97157</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1104797.65273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1123215.28292</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2154730.528</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3648.01656</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3714.323460000001</v>
+        <v>3714.32346</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>4257.52913</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5261.996550000001</v>
+        <v>5261.99655</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>7895.16007</v>
+        <v>8736.626050000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>9797.156570000003</v>
+        <v>9797.156570000001</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>14251.56808</v>
@@ -2225,16 +2291,21 @@
         <v>14925.94585</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>13027.1791</v>
+        <v>13028.14627</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>13398.40547</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>13405.76067</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>12531.29</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>37541.9796</v>
@@ -2255,25 +2326,30 @@
         <v>26493.82999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>41920.07145</v>
+        <v>42325.51730000001</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>42354.16617</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>51064.46842999999</v>
+        <v>51064.46843</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>72408.19481</v>
+        <v>72408.19480999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>83557.15165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>83725.65165</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>88818.162</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>822.90792</v>
@@ -2288,31 +2364,36 @@
         <v>145.41551</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1893.91532</v>
+        <v>1894.14279</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>65.23815</v>
+        <v>65.23814999999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>9699.636500000002</v>
+        <v>9764.024740000003</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>8435.930710000001</v>
+        <v>8435.930709999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>79.03533999999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>219.57501</v>
+        <v>219.59407</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>3432.66358</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1791.699</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>99651.70356000001</v>
@@ -2324,37 +2405,42 @@
         <v>154373.36086</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>82047.15137000001</v>
+        <v>82048.55763</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>223054.32918</v>
+        <v>223293.56955</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>208183.00558</v>
+        <v>208189.88897</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>481224.04874</v>
+        <v>505506.64938</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>467858.81697</v>
+        <v>468003.13131</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>628401.3689799999</v>
+        <v>628401.36898</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2209047.06274</v>
+        <v>2209702.14936</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>922036.3227799999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>940268.52012</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1944553.681</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>685.5012800000001</v>
+        <v>685.50128</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>129.9087</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>40755.6612</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>55336.657</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>3.98859</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>22.85919</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>13762.52296</v>
@@ -2444,31 +2540,36 @@
         <v>13253.20875</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>13768.41797</v>
+        <v>15640.66108</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>21301.70756</v>
+        <v>21301.81525</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>15298.14333</v>
+        <v>17138.66032</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>29850.43495</v>
+        <v>29560.43383</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>19487.82244</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>40370.56419</v>
+        <v>40370.57876</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>41594.58886</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>41604.16651</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>51699.039</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>155758.84846</v>
@@ -2480,34 +2581,39 @@
         <v>203096.88292</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>136720.14455</v>
+        <v>136745.76269</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>226632.33297</v>
+        <v>236801.21278</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>285206.79344</v>
+        <v>285217.22341</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>455271.99119</v>
+        <v>460713.89992</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>498428.2469500001</v>
+        <v>498432.30529</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>615339.51191</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1428359.59829</v>
+        <v>1428776.94322</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>974675.7707400001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>986663.49741</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1362100.736</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>117656.14607</v>
@@ -2519,40 +2625,45 @@
         <v>146560.05197</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>115839.04713</v>
+        <v>115864.66527</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>170302.73476</v>
+        <v>180471.61457</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>242808.63442</v>
+        <v>242819.06439</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>362719.14914</v>
+        <v>367012.4618400001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>417764.1112900001</v>
+        <v>417768.16963</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>479541.8479</v>
+        <v>479541.8478999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1090634.76261</v>
+        <v>1091052.10754</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>743256.78559</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>755242.36765</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>888552.577</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>38102.70239</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>37032.69913</v>
+        <v>37032.69912999999</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>56536.83095</v>
@@ -2567,10 +2678,10 @@
         <v>42398.15902000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>92552.84204999999</v>
+        <v>93701.43808000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>80664.13566000001</v>
+        <v>80664.13565999999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>135797.66401</v>
@@ -2579,13 +2690,18 @@
         <v>337724.83568</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>231418.98515</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>231421.12976</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>473548.159</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>72974.40490000001</v>
@@ -2597,34 +2713,39 @@
         <v>209323.40682</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>206074.10023</v>
+        <v>206085.51043</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>246112.8716</v>
+        <v>254646.94959</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>317032.94277</v>
+        <v>317364.46273</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>212246.08781</v>
+        <v>217312.81388</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>167861.05729</v>
+        <v>168158.91718</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>519353.2149199999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>736491.5886600001</v>
+        <v>737515.42201</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>942020.16698</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>941199.9816200001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1607200.985</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>60553.61565</v>
@@ -2636,34 +2757,39 @@
         <v>56552.68670000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>49718.47668</v>
+        <v>49718.80542</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>122912.42287</v>
+        <v>122919.12484</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>109161.44234</v>
+        <v>109165.18727</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>98992.95963</v>
+        <v>100895.0799</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>221643.53562</v>
+        <v>221703.63277</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>205490.49642</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>209109.43153</v>
+        <v>209674.96912</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>222026.38736</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>227417.9711</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>283808.575</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>178.53715</v>
@@ -2675,7 +2801,7 @@
         <v>1158.04363</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>387.6911899999999</v>
+        <v>387.69119</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>835.64873</v>
@@ -2687,7 +2813,7 @@
         <v>1768.17476</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1293.79362</v>
+        <v>1298.46473</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1199.76322</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1133.66377</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>4200.06</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>60375.0785</v>
@@ -2714,34 +2845,39 @@
         <v>55394.64306999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>49330.78549</v>
+        <v>49331.11423</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>122076.77414</v>
+        <v>122083.47611</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>108509.79386</v>
+        <v>108513.53879</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>97224.78487</v>
+        <v>99126.90514000002</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>220349.742</v>
+        <v>220405.16804</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>204290.7332</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>208132.39994</v>
+        <v>208697.93753</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>220892.72359</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>226284.30733</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>279608.515</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>70322.74858</v>
@@ -2756,37 +2892,42 @@
         <v>43791.96045000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>51044.65584000001</v>
+        <v>51044.84652000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>133309.3054</v>
+        <v>133318.56155</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>63219.83229999999</v>
+        <v>63979.0772</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>194918.23058</v>
+        <v>194919.61736</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>109991.53126</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>229597.04604</v>
+        <v>230069.14424</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>159602.85196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>163241.54846</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>139679.867</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>10493.36059</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>8724.927460000001</v>
+        <v>8724.927459999999</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>6840.748689999999</v>
@@ -2795,31 +2936,36 @@
         <v>4374.36176</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>6835.836870000001</v>
+        <v>6835.836869999999</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>10358.43874</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>5502.99138</v>
+        <v>5502.991379999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>5577.20763</v>
+        <v>5577.207630000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>8065.289760000001</v>
+        <v>8065.28976</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>10176.00683</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>20969.91797</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>22331.20743</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>23919.625</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>6674.06691</v>
@@ -2840,28 +2986,33 @@
         <v>4804.03999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4116.34507</v>
+        <v>4120.24671</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>4527.47498</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3552.031979999999</v>
+        <v>3552.031980000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>7077.839779999999</v>
+        <v>7077.83978</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6015.977380000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5990.75468</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4648.587</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>53155.32108</v>
+        <v>53155.32107999999</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>42262.67008</v>
@@ -2873,34 +3024,39 @@
         <v>37344.54442</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>41756.81262</v>
+        <v>41757.0033</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>118146.82667</v>
+        <v>118156.08282</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>53600.49584999999</v>
+        <v>54355.83911</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>184813.54797</v>
+        <v>184814.93475</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>98374.20951999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>212343.19943</v>
+        <v>212815.29763</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>132616.95661</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>134919.58635</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>111111.655</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>63205.27197</v>
+        <v>63205.27196999999</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>202488.40787</v>
@@ -2909,34 +3065,39 @@
         <v>107327.63937</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>212000.61646</v>
+        <v>212012.3554</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>317980.63863</v>
+        <v>326521.22791</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>292885.07971</v>
+        <v>293211.08845</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>248019.21514</v>
+        <v>254228.81658</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>194586.36233</v>
+        <v>194942.93259</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>614852.1800800001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>716003.97415</v>
+        <v>717121.24689</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1004443.70238</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1005376.40426</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1751329.693</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>27618.27102</v>
@@ -2954,64 +3115,72 @@
         <v>56104.50147</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>74725.32554000001</v>
+        <v>74794.85089999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>77960.52922</v>
+        <v>80594.13608</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>78574.30817</v>
+        <v>78576.98577</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>118486.97822</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>174840.40134</v>
+        <v>175219.82751</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>164882.08668</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>168214.44868</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>250687.535</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>35587.00095</v>
+        <v>35587.00094999999</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>163254.89608</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>57952.72791000001</v>
+        <v>57952.72790999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>165129.07142</v>
+        <v>165140.81036</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>261876.13716</v>
+        <v>270416.72644</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>218159.75417</v>
+        <v>218416.23755</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>170058.68592</v>
+        <v>173634.6805</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>116012.05416</v>
+        <v>116365.94682</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>496365.20186</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>541163.5728099999</v>
+        <v>541901.4193800001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>839561.6157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>837161.9555800001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1500642.158</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1157</v>
@@ -3041,31 +3213,34 @@
         <v>1201</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1343</v>
+        <v>1361</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1407</v>
+        <v>1414</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1479</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1454</v>
+        <v>1573</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1681</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>